--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_4_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_4_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-986803.3243379435</v>
+        <v>-988784.2409183685</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2630451.066553588</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14523237.70155986</v>
+        <v>14531686.90647361</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>95.9454048773934</v>
+        <v>106.8972137089884</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>55.72286606387029</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>85.64047902724808</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>60.94067095028591</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,10 +944,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>169.3371101986598</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>113.2870337730222</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>120.7419800545114</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,13 +1139,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>344.6862691893225</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>43.99240337009266</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>126.3298627762798</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>33.06963601466241</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>88.86494278824917</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>162.7113722816251</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>161.8388177238267</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,22 +2005,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>268.4102587451267</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056511</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,7 +2296,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>149.0799667719507</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0.7557051797483404</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2649,10 +2649,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>25.37433807241484</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>224.895256723154</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>91.26047178278461</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965538</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.2307060180122</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>42.20569823125347</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897923</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571509</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752359</v>
+        <v>54.76109577523579</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550463</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235379</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3123,10 +3123,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373604</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797664</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433872</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572825</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124557</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.9570160514548</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870203</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>722.2873163082934</v>
+        <v>1307.111989013772</v>
       </c>
       <c r="C2" t="n">
-        <v>722.2873163082934</v>
+        <v>938.1494720733608</v>
       </c>
       <c r="D2" t="n">
-        <v>722.2873163082934</v>
+        <v>579.8837734666104</v>
       </c>
       <c r="E2" t="n">
-        <v>722.2873163082934</v>
+        <v>579.8837734666104</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4361,19 +4361,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X2" t="n">
-        <v>1112.426648284105</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y2" t="n">
-        <v>722.2873163082934</v>
+        <v>1307.111989013772</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>642.4263417632175</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>428.1379185813802</v>
       </c>
       <c r="T4" t="n">
-        <v>493.4767912696608</v>
+        <v>428.1379185813802</v>
       </c>
       <c r="U4" t="n">
-        <v>493.4767912696608</v>
+        <v>428.1379185813802</v>
       </c>
       <c r="V4" t="n">
-        <v>493.4767912696608</v>
+        <v>428.1379185813802</v>
       </c>
       <c r="W4" t="n">
-        <v>204.0596212327002</v>
+        <v>428.1379185813802</v>
       </c>
       <c r="X4" t="n">
-        <v>204.0596212327002</v>
+        <v>428.1379185813802</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.0596212327002</v>
+        <v>428.1379185813802</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1483.703156598057</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2471.072815489463</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2471.072815489463</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2471.072815489463</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2471.072815489463</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="X5" t="n">
-        <v>1873.842488573869</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="Y5" t="n">
-        <v>1483.703156598057</v>
+        <v>2118.304160219349</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>318.4909684781771</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>391.878965009939</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>391.878965009939</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>391.878965009939</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084169</v>
+        <v>391.878965009939</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1958.288858935031</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1589.326341994619</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1231.060643387869</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.288858935031</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1958.288858935031</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>98.37975290126613</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>98.37975290126613</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W10" t="n">
-        <v>500.820796875036</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>280.0282177315058</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,46 +5018,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5127,7 +5127,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>579.0685056491545</v>
+        <v>506.0324822735075</v>
       </c>
       <c r="C13" t="n">
-        <v>545.6648329070713</v>
+        <v>337.0962993456006</v>
       </c>
       <c r="D13" t="n">
-        <v>395.5481934947355</v>
+        <v>186.9796599332649</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123424</v>
+        <v>186.9796599332649</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5218,31 +5218,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.499100520942</v>
+        <v>954.814612315055</v>
       </c>
       <c r="X13" t="n">
-        <v>981.5095496229244</v>
+        <v>726.8250614170377</v>
       </c>
       <c r="Y13" t="n">
-        <v>760.7169704793943</v>
+        <v>506.0324822735075</v>
       </c>
     </row>
     <row r="14">
@@ -5276,13 +5276,13 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5297,7 +5297,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>689.074512605029</v>
+        <v>988.7065213774116</v>
       </c>
       <c r="C16" t="n">
-        <v>520.1383296771221</v>
+        <v>824.3515998808206</v>
       </c>
       <c r="D16" t="n">
-        <v>520.1383296771221</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E16" t="n">
-        <v>372.225236094729</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>372.225236094729</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1098.712528333286</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>1098.712528333286</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X16" t="n">
-        <v>870.7229774352687</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y16" t="n">
-        <v>870.7229774352687</v>
+        <v>988.7065213774116</v>
       </c>
     </row>
     <row r="17">
@@ -5489,55 +5489,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5601,7 +5601,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>653.9727323706986</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>804.0893717830345</v>
+        <v>786.0822064765183</v>
       </c>
       <c r="V19" t="n">
-        <v>804.0893717830345</v>
+        <v>531.3977182706315</v>
       </c>
       <c r="W19" t="n">
-        <v>804.0893717830343</v>
+        <v>241.9805482336708</v>
       </c>
       <c r="X19" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609665</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5972,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>874.9271131227918</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>874.9271131227918</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>585.5099430858312</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>584.7466045204288</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6203,49 +6203,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6288,37 +6288,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126485</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571617</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636264</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643589</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307622</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.91651652632</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726215</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6382,52 +6382,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688076</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.497233179937</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471202</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557904</v>
+        <v>1473.285626040312</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557904</v>
+        <v>1249.500210829818</v>
       </c>
       <c r="U28" t="n">
-        <v>1271.749344574921</v>
+        <v>960.3715720433759</v>
       </c>
       <c r="V28" t="n">
-        <v>1017.064856369034</v>
+        <v>705.687083837489</v>
       </c>
       <c r="W28" t="n">
-        <v>727.647686332073</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,22 +6452,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515098</v>
@@ -6476,7 +6476,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6485,7 +6485,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,34 +6528,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>473.2377347729991</v>
+        <v>439.5324299542172</v>
       </c>
       <c r="C31" t="n">
-        <v>360.0624171264628</v>
+        <v>326.3571123076809</v>
       </c>
       <c r="D31" t="n">
-        <v>360.0624171264628</v>
+        <v>232.001338176716</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264628</v>
+        <v>139.8491098756934</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264628</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276538</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667504</v>
+        <v>671.4509053667506</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962046</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286023</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899269</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096192</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167068</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661997</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737481</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818907</v>
+        <v>902.6804289818923</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652441</v>
+        <v>730.4517433652456</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030846</v>
+        <v>565.4200295030862</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108322</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229663</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083197</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504504</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,34 +6953,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7050,7 +7050,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649695</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7196,28 +7196,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7287,7 +7287,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
         <v>1932.236826184156</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2375.872413702068</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2006.909896761656</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.644198154905</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.855945556661</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>851.8700407670535</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>436.7975906120499</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>139.2139902208172</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>453.5018714396643</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>1108.225203574964</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1559.259416823373</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2092.791321495297</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>2639.57013855408</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3483.798167244623</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4197.153254691569</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4655.631457200557</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4779.707779431612</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4669.417110958707</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4463.439363342929</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4209.908886616766</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3878.845999273196</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3526.077344003081</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3152.611585742001</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2762.47225376619</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>972.2488295092107</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>797.7958002280837</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>648.8613905668326</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>489.623935561377</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>343.0893775882621</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>206.7262774208804</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>116.2243830587479</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>190.8943609509032</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>429.1585599312504</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>795.8567202439158</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1243.133045466232</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1716.656089020686</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2127.617368438741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2438.116959914844</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2595.758517561444</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>2595.614164153959</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>2466.176277647439</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>2273.533277325294</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.46543045971</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1810.313322227967</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>1556.075965499766</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>1348.224465294233</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>1140.464166529279</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.1712248333968</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>668.6846748535631</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>566.0176683893006</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>465.5542077549808</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>366.1138932051437</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>245.8606895279359</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
-        <v>147.0931356938673</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>188.845109159628</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>439.337677360911</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>802.4028610618137</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1193.065291913769</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1580.979053872041</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1926.81403804486</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>2205.926923730926</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2330.042605135848</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>2287.661780841449</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>2143.425529616349</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1969.108547133949</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1727.455313207665</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1520.220457949852</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1278.252920860964</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>1097.71300291102</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>924.3700567155632</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987297522</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776707</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298008</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298005</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298479</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298479</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11300,16 +11300,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476834</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>134.1771850839654</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>56.55610523468208</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23473,7 +23473,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>4.535448817002731</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>4.654750739550847</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23707,19 +23707,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,16 +23944,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>17.82709365345067</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338608</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338569</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>224.9539502092888</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>172.5464719111884</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583893</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>61.3420956754233</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33.36825177059579</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965546</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801227</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437434</v>
+        <v>48.0120931631208</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897914</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.215988835715</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1269323.270764801</v>
+        <v>1269323.2707648</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1265973.161754641</v>
+        <v>1280604.450904759</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26314,7 @@
         <v>184734.3982194637</v>
       </c>
       <c r="C2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="D2" t="n">
         <v>184734.3982194637</v>
@@ -26323,37 +26323,37 @@
         <v>175963.076881969</v>
       </c>
       <c r="F2" t="n">
+        <v>175963.0768819691</v>
+      </c>
+      <c r="G2" t="n">
         <v>175963.076881969</v>
       </c>
-      <c r="G2" t="n">
-        <v>175963.0768819691</v>
-      </c>
       <c r="H2" t="n">
-        <v>175963.076881969</v>
+        <v>175963.0768819689</v>
       </c>
       <c r="I2" t="n">
         <v>175963.076881969</v>
       </c>
       <c r="J2" t="n">
-        <v>175963.0768819689</v>
+        <v>175963.0768819691</v>
       </c>
       <c r="K2" t="n">
-        <v>183069.9618053715</v>
+        <v>183069.9618053714</v>
       </c>
       <c r="L2" t="n">
+        <v>184734.398219464</v>
+      </c>
+      <c r="M2" t="n">
         <v>184734.3982194641</v>
       </c>
-      <c r="M2" t="n">
-        <v>184734.398219464</v>
-      </c>
       <c r="N2" t="n">
-        <v>184734.3982194639</v>
+        <v>184734.3982194641</v>
       </c>
       <c r="O2" t="n">
         <v>184734.3982194641</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194639</v>
+        <v>184734.3982194641</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192594</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284447</v>
+        <v>44162.60530284583</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086699</v>
+        <v>10342.90680086695</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338367</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>199883.8198755739</v>
+        <v>44162.6053028456</v>
       </c>
     </row>
     <row r="4">
@@ -26430,34 +26430,34 @@
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230229</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
+        <v>29303.54555230234</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="J4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="I4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="J4" t="n">
-        <v>29303.54555230225</v>
       </c>
       <c r="K4" t="n">
         <v>47468.16806649882</v>
       </c>
       <c r="L4" t="n">
-        <v>51722.3327936228</v>
+        <v>51722.33279362279</v>
       </c>
       <c r="M4" t="n">
-        <v>51722.33279362276</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="N4" t="n">
-        <v>51722.33279362276</v>
+        <v>51722.33279362281</v>
       </c>
       <c r="O4" t="n">
+        <v>51722.33279362281</v>
+      </c>
+      <c r="P4" t="n">
         <v>51722.33279362282</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30134.53761950703</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26491,25 +26491,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>101591.2743431396</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-662583.3363803165</v>
+        <v>-662583.3363803164</v>
       </c>
       <c r="C6" t="n">
-        <v>-72615.45716577201</v>
+        <v>-72615.45716577198</v>
       </c>
       <c r="D6" t="n">
         <v>-72615.45716577198</v>
       </c>
       <c r="E6" t="n">
-        <v>-470487.8310959461</v>
+        <v>-470585.2902219183</v>
       </c>
       <c r="F6" t="n">
-        <v>54672.20538095004</v>
+        <v>54574.74625497797</v>
       </c>
       <c r="G6" t="n">
-        <v>54672.20538095012</v>
+        <v>54574.74625497792</v>
       </c>
       <c r="H6" t="n">
-        <v>54672.20538095004</v>
+        <v>54574.74625497781</v>
       </c>
       <c r="I6" t="n">
-        <v>54672.20538095006</v>
+        <v>54574.74625497784</v>
       </c>
       <c r="J6" t="n">
-        <v>-121751.013811644</v>
+        <v>-121848.4729376149</v>
       </c>
       <c r="K6" t="n">
-        <v>-5189.020094194624</v>
+        <v>-5207.513832130408</v>
       </c>
       <c r="L6" t="n">
-        <v>24954.05280494891</v>
+        <v>24954.05280494883</v>
       </c>
       <c r="M6" t="n">
-        <v>-99504.05562802144</v>
+        <v>-99504.05562802087</v>
       </c>
       <c r="N6" t="n">
-        <v>35296.95960581579</v>
+        <v>35296.95960581588</v>
       </c>
       <c r="O6" t="n">
-        <v>35296.95960581585</v>
+        <v>35296.95960581592</v>
       </c>
       <c r="P6" t="n">
-        <v>-146875.2336187566</v>
+        <v>-8865.645697029686</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,13 +26744,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26759,13 +26759,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26820,10 +26820,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108374</v>
+        <v>12.92863350108368</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>34.04650311750877</v>
+        <v>55.203256628557</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,10 +26981,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-2.423548596878469e-13</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>259.3942951391981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855697</v>
       </c>
     </row>
     <row r="3">
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>310.930640864318</v>
+        <v>299.978832032723</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>90.94232591628756</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>139.3946264308362</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>304.3322208207217</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>5.078602610311719</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>53.95978732560566</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27822,7 +27822,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>131.3956632693166</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,13 +27859,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>37.24410088293928</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,16 +27910,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>104.6230696481197</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,22 +28062,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>160.1931355603112</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855697</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104662</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337681</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,16 +35495,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35577,16 +35577,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35969,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349123</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.502597509196</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556569</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299108</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412242</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084854</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341605</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491597</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403576</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043165</v>
+        <v>94.42895660043177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520624</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502437</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970350042</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970350042</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359025</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120763</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637029</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
